--- a/biology/Botanique/Rhizopus_oryzae/Rhizopus_oryzae.xlsx
+++ b/biology/Botanique/Rhizopus_oryzae/Rhizopus_oryzae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizopus oryzae est une espèce de champignons microscopiques appartenant aux moisissures nobles (auxiliaires de l'industrie chimique ou alimentaire). C'est le Choum-choum des Chinois, qui intervient dans la fabrication de l'alcool de riz distillé, le Baijiu (白酒), notamment la fermentation de l’amidon de riz en anaérobiose.
 Son utilisation s'est ensuite généralisée en fermentation alimentaire pour sa capacité à sécréter de la maltase et dextrinase, qui lui permettent de transformer en alcool, non seulement le maltose, mais aussi l'amidon.
